--- a/OptForce_bdoh/OutputsFindMustL/MustL_Info.xlsx
+++ b/OptForce_bdoh/OutputsFindMustL/MustL_Info.xlsx
@@ -32,10 +32,10 @@
     <t>PHOSACETYLTRANS-RXN</t>
   </si>
   <si>
-    <t>ACETATEKIN-RXN</t>
+    <t>ALCOHOL-DEHYDROG-RXN</t>
   </si>
   <si>
-    <t>EX_ACET</t>
+    <t>ACETATEKIN-RXN</t>
   </si>
 </sst>
 </file>
@@ -108,16 +108,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>7.401207307501157</v>
+        <v>9.322569900177266</v>
       </c>
       <c r="C2" t="n">
-        <v>7.401207307472808</v>
+        <v>9.322569900122522</v>
       </c>
       <c r="D2" t="n">
         <v>0.0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6618807924729356</v>
+        <v>0.5581159355597576</v>
       </c>
     </row>
     <row r="3">
@@ -125,16 +125,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>7.401207307501157</v>
+        <v>6.01756384136512</v>
       </c>
       <c r="C3" t="n">
-        <v>7.401207307472808</v>
+        <v>6.0175638412855985</v>
       </c>
       <c r="D3" t="n">
         <v>0.0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.661880792472811</v>
+        <v>1.0735468285871796E-4</v>
       </c>
     </row>
     <row r="4">
@@ -142,16 +142,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>7.1105799257460545</v>
+        <v>9.322569900177266</v>
       </c>
       <c r="C4" t="n">
-        <v>7.110579925709588</v>
+        <v>9.322569900122522</v>
       </c>
       <c r="D4" t="n">
         <v>0.0</v>
       </c>
       <c r="E4" t="n">
-        <v>1.68788533483899E-4</v>
+        <v>0.5581159355618</v>
       </c>
     </row>
   </sheetData>

--- a/OptForce_bdoh/OutputsFindMustL/MustL_Info.xlsx
+++ b/OptForce_bdoh/OutputsFindMustL/MustL_Info.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Reactions</t>
   </si>
@@ -29,6 +29,9 @@
     <t>Max Flux in Mutant strain</t>
   </si>
   <si>
+    <t>RXN-11811</t>
+  </si>
+  <si>
     <t>PHOSACETYLTRANS-RXN</t>
   </si>
   <si>
@@ -36,6 +39,30 @@
   </si>
   <si>
     <t>ACETATEKIN-RXN</t>
+  </si>
+  <si>
+    <t>butanediol_tx</t>
+  </si>
+  <si>
+    <t>carbon_dioxide_tx</t>
+  </si>
+  <si>
+    <t>ammonia_tx</t>
+  </si>
+  <si>
+    <t>rnf</t>
+  </si>
+  <si>
+    <t>atp_synthase</t>
+  </si>
+  <si>
+    <t>acetaldehyde_oxidoreductase</t>
+  </si>
+  <si>
+    <t>EX_ACET</t>
+  </si>
+  <si>
+    <t>EX_ETOH</t>
   </si>
 </sst>
 </file>
@@ -108,16 +135,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>9.322569900177266</v>
+        <v>0.3242417084341014</v>
       </c>
       <c r="C2" t="n">
-        <v>9.322569900122522</v>
+        <v>0.3242518578905767</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0</v>
+        <v>-0.2699999999999818</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5581159355597576</v>
+        <v>-0.21039305344697823</v>
       </c>
     </row>
     <row r="3">
@@ -125,16 +152,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>6.01756384136512</v>
+        <v>9.322569900162712</v>
       </c>
       <c r="C3" t="n">
-        <v>6.0175638412855985</v>
+        <v>9.322569900133278</v>
       </c>
       <c r="D3" t="n">
         <v>0.0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.0735468285871796E-4</v>
+        <v>0.5581383264083755</v>
       </c>
     </row>
     <row r="4">
@@ -142,16 +169,169 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>9.322569900177266</v>
+        <v>6.017563841353848</v>
       </c>
       <c r="C4" t="n">
-        <v>9.322569900122522</v>
+        <v>6.017563842190479</v>
       </c>
       <c r="D4" t="n">
         <v>0.0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5581159355618</v>
+        <v>1.1531940820272771E-4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="n">
+        <v>9.322569900162712</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9.322569900133278</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5581383264066314</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4.2518627507703854E-12</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-4.94854545454541</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-4.89119041293692</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="n">
+        <v>7.639755494892597E-11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-5.25660063105704</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-1.0061430105105273</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.3242417084341014</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3242518578905767</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.2699999999999818</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.2103930447806738</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="n">
+        <v>25.631101669110294</v>
+      </c>
+      <c r="C9" t="n">
+        <v>25.631101669097436</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.4635520000000497</v>
+      </c>
+      <c r="E9" t="n">
+        <v>23.42695082394596</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="n">
+        <v>13.983145666709913</v>
+      </c>
+      <c r="C10" t="n">
+        <v>13.983145666705488</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.3440000000000145</v>
+      </c>
+      <c r="E10" t="n">
+        <v>12.780660801977952</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6.017563841368411</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6.0175638412953845</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-7.293627921667621</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.1531940860104103E-4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3.004793205510458</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3.0047932055068545</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.7298344482696848E-4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6.017563841348419</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6.0175638413925405</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.1531940818521914E-4</v>
       </c>
     </row>
   </sheetData>
